--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tshb-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tshb-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Tshb</t>
   </si>
   <si>
     <t>Tshr</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.206037999999999</v>
+        <v>3.795307</v>
       </c>
       <c r="H2">
-        <v>12.618114</v>
+        <v>11.385921</v>
       </c>
       <c r="I2">
-        <v>0.9336035417126786</v>
+        <v>0.9031229344766518</v>
       </c>
       <c r="J2">
-        <v>0.9336035417126786</v>
+        <v>0.9031229344766519</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N2">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O2">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P2">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q2">
-        <v>2.181946705082666</v>
+        <v>2.348495488325333</v>
       </c>
       <c r="R2">
-        <v>19.637520345744</v>
+        <v>21.136459394928</v>
       </c>
       <c r="S2">
-        <v>0.151320616203177</v>
+        <v>0.1594043006794656</v>
       </c>
       <c r="T2">
-        <v>0.151320616203177</v>
+        <v>0.1594043006794656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.206037999999999</v>
+        <v>3.795307</v>
       </c>
       <c r="H3">
-        <v>12.618114</v>
+        <v>11.385921</v>
       </c>
       <c r="I3">
-        <v>0.9336035417126786</v>
+        <v>0.9031229344766518</v>
       </c>
       <c r="J3">
-        <v>0.9336035417126786</v>
+        <v>0.9031229344766519</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N3">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O3">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P3">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q3">
-        <v>9.396220193379332</v>
+        <v>8.478653847985667</v>
       </c>
       <c r="R3">
-        <v>84.56598174041397</v>
+        <v>76.307884631871</v>
       </c>
       <c r="S3">
-        <v>0.6516391194756644</v>
+        <v>0.5754892415421109</v>
       </c>
       <c r="T3">
-        <v>0.6516391194756643</v>
+        <v>0.575489241542111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.206037999999999</v>
+        <v>3.795307</v>
       </c>
       <c r="H4">
-        <v>12.618114</v>
+        <v>11.385921</v>
       </c>
       <c r="I4">
-        <v>0.9336035417126786</v>
+        <v>0.9031229344766518</v>
       </c>
       <c r="J4">
-        <v>0.9336035417126786</v>
+        <v>0.9031229344766519</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N4">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O4">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P4">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q4">
-        <v>0.5674828529979998</v>
+        <v>0.7862282075060001</v>
       </c>
       <c r="R4">
-        <v>5.107345676981999</v>
+        <v>7.076053867554001</v>
       </c>
       <c r="S4">
-        <v>0.0393556152404469</v>
+        <v>0.05336529629926298</v>
       </c>
       <c r="T4">
-        <v>0.0393556152404469</v>
+        <v>0.05336529629926299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.206037999999999</v>
+        <v>3.795307</v>
       </c>
       <c r="H5">
-        <v>12.618114</v>
+        <v>11.385921</v>
       </c>
       <c r="I5">
-        <v>0.9336035417126786</v>
+        <v>0.9031229344766518</v>
       </c>
       <c r="J5">
-        <v>0.9336035417126786</v>
+        <v>0.9031229344766519</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N5">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O5">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P5">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q5">
-        <v>0.7074611996506667</v>
+        <v>0.7172851907486666</v>
       </c>
       <c r="R5">
-        <v>6.367150796855999</v>
+        <v>6.455566716738</v>
       </c>
       <c r="S5">
-        <v>0.04906328116154508</v>
+        <v>0.04868578406363504</v>
       </c>
       <c r="T5">
-        <v>0.04906328116154508</v>
+        <v>0.04868578406363504</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.206037999999999</v>
+        <v>3.795307</v>
       </c>
       <c r="H6">
-        <v>12.618114</v>
+        <v>11.385921</v>
       </c>
       <c r="I6">
-        <v>0.9336035417126786</v>
+        <v>0.9031229344766518</v>
       </c>
       <c r="J6">
-        <v>0.9336035417126786</v>
+        <v>0.9031229344766519</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N6">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O6">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P6">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q6">
-        <v>0.6088562467913333</v>
+        <v>0.9750017172766666</v>
       </c>
       <c r="R6">
-        <v>5.479706221122</v>
+        <v>8.775015455489999</v>
       </c>
       <c r="S6">
-        <v>0.0422249096318453</v>
+        <v>0.06617831189217728</v>
       </c>
       <c r="T6">
-        <v>0.04222490963184529</v>
+        <v>0.06617831189217728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +856,40 @@
         <v>0.458041</v>
       </c>
       <c r="I7">
-        <v>0.03389006469981307</v>
+        <v>0.03633147744750909</v>
       </c>
       <c r="J7">
-        <v>0.03389006469981307</v>
+        <v>0.03633147744750909</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N7">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O7">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P7">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q7">
-        <v>0.0792052640151111</v>
+        <v>0.09447696167644444</v>
       </c>
       <c r="R7">
-        <v>0.7128473761359999</v>
+        <v>0.850292655088</v>
       </c>
       <c r="S7">
-        <v>0.005492979883231315</v>
+        <v>0.00641263058891091</v>
       </c>
       <c r="T7">
-        <v>0.005492979883231314</v>
+        <v>0.006412630588910911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.458041</v>
       </c>
       <c r="I8">
-        <v>0.03389006469981307</v>
+        <v>0.03633147744750909</v>
       </c>
       <c r="J8">
-        <v>0.03389006469981307</v>
+        <v>0.03633147744750909</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N8">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O8">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P8">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q8">
         <v>0.3410853708878889</v>
       </c>
       <c r="R8">
-        <v>3.069768337990999</v>
+        <v>3.069768337991</v>
       </c>
       <c r="S8">
-        <v>0.02365467881521381</v>
+        <v>0.02315119415330478</v>
       </c>
       <c r="T8">
-        <v>0.02365467881521381</v>
+        <v>0.02315119415330478</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.458041</v>
       </c>
       <c r="I9">
-        <v>0.03389006469981307</v>
+        <v>0.03633147744750909</v>
       </c>
       <c r="J9">
-        <v>0.03389006469981307</v>
+        <v>0.03633147744750909</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N9">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O9">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P9">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q9">
-        <v>0.02059978325366666</v>
+        <v>0.03162895249266667</v>
       </c>
       <c r="R9">
-        <v>0.185398049283</v>
+        <v>0.284660572434</v>
       </c>
       <c r="S9">
-        <v>0.001428619630504966</v>
+        <v>0.002146817432003148</v>
       </c>
       <c r="T9">
-        <v>0.001428619630504966</v>
+        <v>0.002146817432003148</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,40 +1042,40 @@
         <v>0.458041</v>
       </c>
       <c r="I10">
-        <v>0.03389006469981307</v>
+        <v>0.03633147744750909</v>
       </c>
       <c r="J10">
-        <v>0.03389006469981307</v>
+        <v>0.03633147744750909</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N10">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O10">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P10">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q10">
-        <v>0.02568103564044445</v>
+        <v>0.02885546334422222</v>
       </c>
       <c r="R10">
-        <v>0.231129320764</v>
+        <v>0.259699170098</v>
       </c>
       <c r="S10">
-        <v>0.001781010566754689</v>
+        <v>0.00195856665598606</v>
       </c>
       <c r="T10">
-        <v>0.001781010566754689</v>
+        <v>0.00195856665598606</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>0.458041</v>
       </c>
       <c r="I11">
-        <v>0.03389006469981307</v>
+        <v>0.03633147744750909</v>
       </c>
       <c r="J11">
-        <v>0.03389006469981307</v>
+        <v>0.03633147744750909</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N11">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O11">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P11">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q11">
-        <v>0.02210164879922222</v>
+        <v>0.03922306869888889</v>
       </c>
       <c r="R11">
-        <v>0.198914839193</v>
+        <v>0.35300761829</v>
       </c>
       <c r="S11">
-        <v>0.001532775804108289</v>
+        <v>0.002662268617304193</v>
       </c>
       <c r="T11">
-        <v>0.001532775804108288</v>
+        <v>0.002662268617304193</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.010732</v>
+        <v>0.145999</v>
       </c>
       <c r="H12">
-        <v>0.032196</v>
+        <v>0.437997</v>
       </c>
       <c r="I12">
-        <v>0.002382154704655656</v>
+        <v>0.03474160201286923</v>
       </c>
       <c r="J12">
-        <v>0.002382154704655657</v>
+        <v>0.03474160201286924</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N12">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O12">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P12">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q12">
-        <v>0.005567389557333333</v>
+        <v>0.09034262387733333</v>
       </c>
       <c r="R12">
-        <v>0.050106506016</v>
+        <v>0.813083614896</v>
       </c>
       <c r="S12">
-        <v>0.0003861051310265138</v>
+        <v>0.006132012112564621</v>
       </c>
       <c r="T12">
-        <v>0.0003861051310265138</v>
+        <v>0.006132012112564623</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.010732</v>
+        <v>0.145999</v>
       </c>
       <c r="H13">
-        <v>0.032196</v>
+        <v>0.437997</v>
       </c>
       <c r="I13">
-        <v>0.002382154704655656</v>
+        <v>0.03474160201286923</v>
       </c>
       <c r="J13">
-        <v>0.002382154704655657</v>
+        <v>0.03474160201286924</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N13">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O13">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P13">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q13">
-        <v>0.02397511271066667</v>
+        <v>0.3261593813496667</v>
       </c>
       <c r="R13">
-        <v>0.215776014396</v>
+        <v>2.935434432147</v>
       </c>
       <c r="S13">
-        <v>0.001662702769260009</v>
+        <v>0.02213809153670748</v>
       </c>
       <c r="T13">
-        <v>0.001662702769260009</v>
+        <v>0.02213809153670748</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.010732</v>
+        <v>0.145999</v>
       </c>
       <c r="H14">
-        <v>0.032196</v>
+        <v>0.437997</v>
       </c>
       <c r="I14">
-        <v>0.002382154704655656</v>
+        <v>0.03474160201286923</v>
       </c>
       <c r="J14">
-        <v>0.002382154704655657</v>
+        <v>0.03474160201286924</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N14">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O14">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P14">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q14">
-        <v>0.001447972172</v>
+        <v>0.030244860842</v>
       </c>
       <c r="R14">
-        <v>0.013031749548</v>
+        <v>0.272203747578</v>
       </c>
       <c r="S14">
-        <v>0.000100418603626614</v>
+        <v>0.002052872111372307</v>
       </c>
       <c r="T14">
-        <v>0.000100418603626614</v>
+        <v>0.002052872111372307</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,46 +1346,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.010732</v>
+        <v>0.145999</v>
       </c>
       <c r="H15">
-        <v>0.032196</v>
+        <v>0.437997</v>
       </c>
       <c r="I15">
-        <v>0.002382154704655656</v>
+        <v>0.03474160201286923</v>
       </c>
       <c r="J15">
-        <v>0.002382154704655657</v>
+        <v>0.03474160201286924</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N15">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O15">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P15">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q15">
-        <v>0.001805136709333334</v>
+        <v>0.02759274034066667</v>
       </c>
       <c r="R15">
-        <v>0.016246230384</v>
+        <v>0.248334663066</v>
       </c>
       <c r="S15">
-        <v>0.0001251883918846434</v>
+        <v>0.001872859241032847</v>
       </c>
       <c r="T15">
-        <v>0.0001251883918846434</v>
+        <v>0.001872859241032847</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.010732</v>
+        <v>0.145999</v>
       </c>
       <c r="H16">
-        <v>0.032196</v>
+        <v>0.437997</v>
       </c>
       <c r="I16">
-        <v>0.002382154704655656</v>
+        <v>0.03474160201286923</v>
       </c>
       <c r="J16">
-        <v>0.002382154704655657</v>
+        <v>0.03474160201286924</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N16">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O16">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P16">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q16">
-        <v>0.001553539278666667</v>
+        <v>0.03750665643666666</v>
       </c>
       <c r="R16">
-        <v>0.013981853508</v>
+        <v>0.33755990793</v>
       </c>
       <c r="S16">
-        <v>0.0001077398088578762</v>
+        <v>0.002545767011191977</v>
       </c>
       <c r="T16">
-        <v>0.0001077398088578762</v>
+        <v>0.002545767011191977</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1357146666666667</v>
+        <v>0.1042213333333333</v>
       </c>
       <c r="H17">
-        <v>0.407144</v>
+        <v>0.312664</v>
       </c>
       <c r="I17">
-        <v>0.0301242388828526</v>
+        <v>0.02480028002874848</v>
       </c>
       <c r="J17">
-        <v>0.0301242388828526</v>
+        <v>0.02480028002874848</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N17">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O17">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P17">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q17">
-        <v>0.07040406429155555</v>
+        <v>0.06449104937244445</v>
       </c>
       <c r="R17">
-        <v>0.6336365786239999</v>
+        <v>0.580419444352</v>
       </c>
       <c r="S17">
-        <v>0.004882606145690736</v>
+        <v>0.00437733462823468</v>
       </c>
       <c r="T17">
-        <v>0.004882606145690735</v>
+        <v>0.004377334628234681</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1357146666666667</v>
+        <v>0.1042213333333333</v>
       </c>
       <c r="H18">
-        <v>0.407144</v>
+        <v>0.312664</v>
       </c>
       <c r="I18">
-        <v>0.0301242388828526</v>
+        <v>0.02480028002874848</v>
       </c>
       <c r="J18">
-        <v>0.0301242388828526</v>
+        <v>0.02480028002874848</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N18">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O18">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P18">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q18">
-        <v>0.3031843486604444</v>
+        <v>0.2328287563848889</v>
       </c>
       <c r="R18">
-        <v>2.728659137943999</v>
+        <v>2.095458807464</v>
       </c>
       <c r="S18">
-        <v>0.02102619754899979</v>
+        <v>0.01580326863479227</v>
       </c>
       <c r="T18">
-        <v>0.02102619754899978</v>
+        <v>0.01580326863479227</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1357146666666667</v>
+        <v>0.1042213333333333</v>
       </c>
       <c r="H19">
-        <v>0.407144</v>
+        <v>0.312664</v>
       </c>
       <c r="I19">
-        <v>0.0301242388828526</v>
+        <v>0.02480028002874848</v>
       </c>
       <c r="J19">
-        <v>0.0301242388828526</v>
+        <v>0.02480028002874848</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N19">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O19">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P19">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q19">
-        <v>0.01831075854133333</v>
+        <v>0.02159028297066667</v>
       </c>
       <c r="R19">
-        <v>0.164796826872</v>
+        <v>0.194312546736</v>
       </c>
       <c r="S19">
-        <v>0.001269873026306191</v>
+        <v>0.001465442014055144</v>
       </c>
       <c r="T19">
-        <v>0.001269873026306191</v>
+        <v>0.001465442014055144</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1357146666666667</v>
+        <v>0.1042213333333333</v>
       </c>
       <c r="H20">
-        <v>0.407144</v>
+        <v>0.312664</v>
       </c>
       <c r="I20">
-        <v>0.0301242388828526</v>
+        <v>0.02480028002874848</v>
       </c>
       <c r="J20">
-        <v>0.0301242388828526</v>
+        <v>0.02480028002874848</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N20">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O20">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P20">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q20">
-        <v>0.02282738788622222</v>
+        <v>0.01969706771022222</v>
       </c>
       <c r="R20">
-        <v>0.205446490976</v>
+        <v>0.177273609392</v>
       </c>
       <c r="S20">
-        <v>0.001583106678639622</v>
+        <v>0.001336939891684861</v>
       </c>
       <c r="T20">
-        <v>0.001583106678639621</v>
+        <v>0.001336939891684861</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1357146666666667</v>
+        <v>0.1042213333333333</v>
       </c>
       <c r="H21">
-        <v>0.407144</v>
+        <v>0.312664</v>
       </c>
       <c r="I21">
-        <v>0.0301242388828526</v>
+        <v>0.02480028002874848</v>
       </c>
       <c r="J21">
-        <v>0.0301242388828526</v>
+        <v>0.02480028002874848</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N21">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O21">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P21">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q21">
-        <v>0.01964573847911111</v>
+        <v>0.02677411312888889</v>
       </c>
       <c r="R21">
-        <v>0.176811646312</v>
+        <v>0.24096701816</v>
       </c>
       <c r="S21">
-        <v>0.001362455483216273</v>
+        <v>0.001817294859981526</v>
       </c>
       <c r="T21">
-        <v>0.001362455483216273</v>
+        <v>0.001817294859981526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.004218</v>
+      </c>
+      <c r="H22">
+        <v>0.012654</v>
+      </c>
+      <c r="I22">
+        <v>0.001003706034221347</v>
+      </c>
+      <c r="J22">
+        <v>0.001003706034221347</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.6187893333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.856368</v>
+      </c>
+      <c r="O22">
+        <v>0.1765034355725207</v>
+      </c>
+      <c r="P22">
+        <v>0.1765034355725208</v>
+      </c>
+      <c r="Q22">
+        <v>0.002610053408</v>
+      </c>
+      <c r="R22">
+        <v>0.023490480672</v>
+      </c>
+      <c r="S22">
+        <v>0.0001771575633449378</v>
+      </c>
+      <c r="T22">
+        <v>0.0001771575633449379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.004218</v>
+      </c>
+      <c r="H23">
+        <v>0.012654</v>
+      </c>
+      <c r="I23">
+        <v>0.001003706034221347</v>
+      </c>
+      <c r="J23">
+        <v>0.001003706034221347</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.233983666666667</v>
+      </c>
+      <c r="N23">
+        <v>6.701951000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.6372213788099619</v>
+      </c>
+      <c r="P23">
+        <v>0.6372213788099619</v>
+      </c>
+      <c r="Q23">
+        <v>0.009422943106000002</v>
+      </c>
+      <c r="R23">
+        <v>0.08480648795400002</v>
+      </c>
+      <c r="S23">
+        <v>0.0006395829430464055</v>
+      </c>
+      <c r="T23">
+        <v>0.0006395829430464056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.004218</v>
+      </c>
+      <c r="H24">
+        <v>0.012654</v>
+      </c>
+      <c r="I24">
+        <v>0.001003706034221347</v>
+      </c>
+      <c r="J24">
+        <v>0.001003706034221347</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.207158</v>
+      </c>
+      <c r="N24">
+        <v>0.6214740000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.05908973658186135</v>
+      </c>
+      <c r="P24">
+        <v>0.05908973658186135</v>
+      </c>
+      <c r="Q24">
+        <v>0.0008737924440000003</v>
+      </c>
+      <c r="R24">
+        <v>0.007864131996000001</v>
+      </c>
+      <c r="S24">
+        <v>5.93087251677641E-05</v>
+      </c>
+      <c r="T24">
+        <v>5.930872516776412E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.004218</v>
+      </c>
+      <c r="H25">
+        <v>0.012654</v>
+      </c>
+      <c r="I25">
+        <v>0.001003706034221347</v>
+      </c>
+      <c r="J25">
+        <v>0.001003706034221347</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1889926666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.566978</v>
+      </c>
+      <c r="O25">
+        <v>0.05390825789608347</v>
+      </c>
+      <c r="P25">
+        <v>0.05390825789608347</v>
+      </c>
+      <c r="Q25">
+        <v>0.0007971710680000001</v>
+      </c>
+      <c r="R25">
+        <v>0.007174539612</v>
+      </c>
+      <c r="S25">
+        <v>5.410804374465955E-05</v>
+      </c>
+      <c r="T25">
+        <v>5.410804374465956E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.004218</v>
+      </c>
+      <c r="H26">
+        <v>0.012654</v>
+      </c>
+      <c r="I26">
+        <v>0.001003706034221347</v>
+      </c>
+      <c r="J26">
+        <v>0.001003706034221347</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2568966666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.77069</v>
+      </c>
+      <c r="O26">
+        <v>0.07327719113957255</v>
+      </c>
+      <c r="P26">
+        <v>0.07327719113957255</v>
+      </c>
+      <c r="Q26">
+        <v>0.00108359014</v>
+      </c>
+      <c r="R26">
+        <v>0.00975231126</v>
+      </c>
+      <c r="S26">
+        <v>7.354875891757999E-05</v>
+      </c>
+      <c r="T26">
+        <v>7.354875891758001E-05</v>
       </c>
     </row>
   </sheetData>
